--- a/Examples.xlsx
+++ b/Examples.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10907"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felix/Dropbox/02_FH/01 Lehre/BA/Skript-Business-Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96035D4C-7FCC-FA4F-9939-A3C1E35AD209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64E4F9F-C7A3-CF41-889F-FE6FF4A34002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" activeTab="2" xr2:uid="{C6296A26-AE79-B143-B067-41BC073D48D8}"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" activeTab="5" xr2:uid="{C6296A26-AE79-B143-B067-41BC073D48D8}"/>
   </bookViews>
   <sheets>
     <sheet name="bad" sheetId="1" r:id="rId1"/>
     <sheet name="good" sheetId="2" r:id="rId2"/>
     <sheet name="len" sheetId="3" r:id="rId3"/>
+    <sheet name="forloop1" sheetId="4" r:id="rId4"/>
+    <sheet name="forloop2" sheetId="5" r:id="rId5"/>
+    <sheet name="transactions" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Ergebnis</t>
   </si>
@@ -65,6 +68,54 @@
   </si>
   <si>
     <t>Werte</t>
+  </si>
+  <si>
+    <t>Anzahl Werte</t>
+  </si>
+  <si>
+    <t>Annahme</t>
+  </si>
+  <si>
+    <t>Ausgangswerte</t>
+  </si>
+  <si>
+    <t>Neue Werte</t>
+  </si>
+  <si>
+    <t>Namen</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Aishe</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Kunden-ID</t>
+  </si>
+  <si>
+    <t>Produktpreis</t>
+  </si>
+  <si>
+    <t>Menge</t>
+  </si>
+  <si>
+    <t>Umsatz</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>Transaktionen pro Tag</t>
+  </si>
+  <si>
+    <t>Datum: 13.09.2022</t>
   </si>
 </sst>
 </file>
@@ -72,9 +123,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -90,16 +141,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -116,11 +187,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -128,9 +210,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -541,81 +644,363 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BF8E4B-DC15-DC4D-8727-99290CBEA405}">
-  <dimension ref="B2:B13"/>
+  <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <v>0.70679272990775843</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5">
+        <f>+COUNT(B3:B12)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>0.44735259910679015</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <v>0.85557556419373859</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
+        <v>0.10257488549569094</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <v>0.98966071715459436</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <v>0.56197189164131256</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <v>0.65680463610689366</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
+        <v>4.3951544579980073E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <v>0.29910103447107728</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
+        <v>8.5280617987085638E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8401BA43-1BDE-164A-8B52-A752A656343C}">
+  <dimension ref="B1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>B4*$C$1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C11" si="0">B5*$C$1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1197EC6E-7C37-DB47-9F70-3C6D4FED2D79}">
+  <dimension ref="B3:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="3">
-        <f ca="1">+RAND()</f>
-        <v>0.49526873840645913</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="3">
-        <f t="shared" ref="B4:B21" ca="1" si="0">+RAND()</f>
-        <v>0.46734960436794282</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="str">
+        <f>"Hallo " &amp; B4</f>
+        <v>Hallo Julia</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5:C7" si="0">"Hallo " &amp; B5</f>
+        <v>Hallo Aishe</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Hallo Fred</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Hallo John</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54827A60-5B64-1F4E-8055-B20DD37001E6}">
+  <dimension ref="B2:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <f ca="1">+ROUND(RAND()*100,0)</f>
+        <v>64</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <f t="shared" ref="B7:B10" ca="1" si="0">+ROUND(RAND()*100,0)</f>
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2070845351661612E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="3">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71062712088710611</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58338266013168227</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.334915998550257</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0794052446833291E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14102178687263744</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.59431292653630863</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.57656409756519655</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Examples.xlsx
+++ b/Examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felix/Dropbox/02_FH/01 Lehre/BA/Skript-Business-Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64E4F9F-C7A3-CF41-889F-FE6FF4A34002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE0004F-9F7C-2B4A-8C12-5C828F7283A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" activeTab="5" xr2:uid="{C6296A26-AE79-B143-B067-41BC073D48D8}"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" activeTab="6" xr2:uid="{C6296A26-AE79-B143-B067-41BC073D48D8}"/>
   </bookViews>
   <sheets>
     <sheet name="bad" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="forloop1" sheetId="4" r:id="rId4"/>
     <sheet name="forloop2" sheetId="5" r:id="rId5"/>
     <sheet name="transactions" sheetId="6" r:id="rId6"/>
+    <sheet name="Spaltenvektor" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Ergebnis</t>
   </si>
@@ -116,6 +117,15 @@
   </si>
   <si>
     <t>Datum: 13.09.2022</t>
+  </si>
+  <si>
+    <t>Spaltenvektor</t>
+  </si>
+  <si>
+    <t>Zeilenvektor</t>
+  </si>
+  <si>
+    <t>Matrix (zweidimensional)</t>
   </si>
 </sst>
 </file>
@@ -229,11 +239,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -892,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54827A60-5B64-1F4E-8055-B20DD37001E6}">
   <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -928,79 +942,201 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <f ca="1">+ROUND(RAND()*100,0)</f>
+      <c r="B6" s="6">
         <v>64</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <v>10</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="6">
         <v>3</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="13">
+        <f>+C6*D6</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <f t="shared" ref="B7:B10" ca="1" si="0">+ROUND(RAND()*100,0)</f>
+      <c r="B7" s="6">
         <v>16</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6">
         <v>20</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="6">
         <v>5</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="13">
+        <f t="shared" ref="E7:E10" si="0">+C7*D7</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B8" s="6">
         <v>27</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
         <v>30</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="6">
         <v>7</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="13">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B9" s="6">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
         <v>10</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B10" s="6">
         <v>35</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
         <v>5</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="6">
         <v>9</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="13">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="14">
+        <f>+SUM(E6:E10)</f>
+        <v>395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5715453-1EED-344B-831D-27807C0ECE3C}">
+  <dimension ref="B2:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Examples.xlsx
+++ b/Examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felix/Dropbox/02_FH/01 Lehre/BA/Skript-Business-Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE0004F-9F7C-2B4A-8C12-5C828F7283A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A23E888-0AEA-0C49-B97D-F7792F6A3F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" activeTab="6" xr2:uid="{C6296A26-AE79-B143-B067-41BC073D48D8}"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" activeTab="7" xr2:uid="{C6296A26-AE79-B143-B067-41BC073D48D8}"/>
   </bookViews>
   <sheets>
     <sheet name="bad" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="forloop2" sheetId="5" r:id="rId5"/>
     <sheet name="transactions" sheetId="6" r:id="rId6"/>
     <sheet name="Spaltenvektor" sheetId="7" r:id="rId7"/>
+    <sheet name="numpy" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Ergebnis</t>
   </si>
@@ -126,6 +127,18 @@
   </si>
   <si>
     <t>Matrix (zweidimensional)</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Wichtige Analyse</t>
+  </si>
+  <si>
+    <t>&gt;20</t>
+  </si>
+  <si>
+    <t>dfdf</t>
   </si>
 </sst>
 </file>
@@ -135,7 +148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,6 +167,14 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -212,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -248,6 +269,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1038,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5715453-1EED-344B-831D-27807C0ECE3C}">
   <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1141,4 +1163,195 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90069C3F-3DD8-EE47-9082-BE9CB0B0A051}">
+  <dimension ref="B2:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="B2" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1">
+        <f>IF(C6&gt;20,C6,0)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:D17" si="0">IF(C7&gt;20,C7,0)</f>
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1">
+        <f>IF(C17&gt;20,C17,0)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="14">
+        <f>+SUM(C6:C17)</f>
+        <v>281</v>
+      </c>
+      <c r="D19" s="14">
+        <f>+SUM(D6:D17)</f>
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>